--- a/AAAGameData/Languages/English.xlsx
+++ b/AAAGameData/Languages/English.xlsx
@@ -1,61 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\UnityProjects\UGF\AAAGameData\Languages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unityProject\vehicle_gfx\AAAGameData\Languages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3047AD-C7CB-4908-AAA5-0ACC4E9B270D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Anonymous</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+        <r>
           <rPr>
             <sz val="11"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
-          <t xml:space="preserve">勾选锁定此行,锁定后将强制保留</t>
-        </d:r>
+          <t>勾选锁定此行,锁定后将强制保留</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+        <r>
           <rPr>
             <sz val="11"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
-          <t xml:space="preserve">多语言Key</t>
-        </d:r>
+          <t>多语言Key</t>
+        </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+        <r>
           <rPr>
             <sz val="11"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
-          <t xml:space="preserve">多语言Value, 当值为空时, [一键翻译]会自动填充Value值</t>
-        </d:r>
+          <t>多语言Value, 当值为空时, [一键翻译]会自动填充Value值</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -63,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
     <t>BRAKE</t>
   </si>
@@ -80,9 +82,6 @@
     <t>Failed</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>GameOverUIForm.Back</t>
   </si>
   <si>
@@ -234,17 +233,84 @@
   </si>
   <si>
     <t>Victory</t>
+  </si>
+  <si>
+    <t>MAIN_MENU.HISTORY_MODI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN_MENU.LOADING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN_MENU.GAME_START</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>victory</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>History modification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start modification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ack</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN_MENU.MODIFY_RULE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modification Rule：\n1.。。。2.。。。3.。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -267,11 +333,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -389,6 +457,22 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
@@ -416,606 +500,6 @@
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
@@ -1030,9 +514,9 @@
           <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A1" id="1056">
+            <xdr:cNvPr id="1056" name="A1" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1056"/>
@@ -1046,8 +530,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1060,7 +544,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -1077,19 +561,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -1116,9 +600,9 @@
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A2" id="1057">
+            <xdr:cNvPr id="1057" name="A2" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1057"/>
@@ -1132,8 +616,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1146,7 +630,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -1163,19 +647,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -1202,9 +686,9 @@
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A3" id="1058">
+            <xdr:cNvPr id="1058" name="A3" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1058"/>
@@ -1218,8 +702,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1232,7 +716,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -1249,19 +733,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -1288,9 +772,9 @@
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A4" id="1059">
+            <xdr:cNvPr id="1059" name="A4" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1059"/>
@@ -1304,8 +788,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1318,7 +802,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -1335,19 +819,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -1374,9 +858,9 @@
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A5" id="1060">
+            <xdr:cNvPr id="1060" name="A5" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1060"/>
@@ -1390,8 +874,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1404,7 +888,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -1421,19 +905,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -1460,9 +944,9 @@
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A6" id="1061">
+            <xdr:cNvPr id="1061" name="A6" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1061"/>
@@ -1476,8 +960,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1490,7 +974,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -1507,19 +991,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -1546,9 +1030,9 @@
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A7" id="1062">
+            <xdr:cNvPr id="1062" name="A7" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1062"/>
@@ -1562,8 +1046,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1576,7 +1060,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -1593,19 +1077,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -1632,9 +1116,9 @@
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A8" id="1063">
+            <xdr:cNvPr id="1063" name="A8" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1063"/>
@@ -1648,8 +1132,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1662,7 +1146,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -1679,19 +1163,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -1718,9 +1202,9 @@
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A9" id="1064">
+            <xdr:cNvPr id="1064" name="A9" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1064"/>
@@ -1734,8 +1218,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1748,7 +1232,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -1765,19 +1249,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -1804,9 +1288,9 @@
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A10" id="1065">
+            <xdr:cNvPr id="1065" name="A10" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1065"/>
@@ -1820,8 +1304,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1834,7 +1318,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -1851,19 +1335,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -1890,9 +1374,9 @@
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A11" id="1066">
+            <xdr:cNvPr id="1066" name="A11" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1066"/>
@@ -1906,8 +1390,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1920,7 +1404,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -1937,19 +1421,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -1976,9 +1460,9 @@
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A12" id="1067">
+            <xdr:cNvPr id="1067" name="A12" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1067"/>
@@ -1992,8 +1476,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2006,7 +1490,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -2023,19 +1507,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -2062,9 +1546,9 @@
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A13" id="1068">
+            <xdr:cNvPr id="1068" name="A13" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1068"/>
@@ -2078,8 +1562,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2092,7 +1576,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -2109,19 +1593,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -2148,9 +1632,9 @@
           <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A14" id="1069">
+            <xdr:cNvPr id="1069" name="A14" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1069"/>
@@ -2164,8 +1648,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2178,7 +1662,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -2195,19 +1679,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -2234,9 +1718,9 @@
           <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A15" id="1070">
+            <xdr:cNvPr id="1070" name="A15" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1070"/>
@@ -2250,8 +1734,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2264,7 +1748,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -2281,19 +1765,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -2320,9 +1804,9 @@
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A16" id="1071">
+            <xdr:cNvPr id="1071" name="A16" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1071"/>
@@ -2336,8 +1820,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2350,7 +1834,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -2367,19 +1851,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -2406,9 +1890,9 @@
           <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A17" id="1072">
+            <xdr:cNvPr id="1072" name="A17" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1072"/>
@@ -2422,8 +1906,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2436,7 +1920,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -2453,19 +1937,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -2492,9 +1976,9 @@
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A18" id="1073">
+            <xdr:cNvPr id="1073" name="A18" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1073"/>
@@ -2508,8 +1992,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2522,7 +2006,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -2539,19 +2023,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -2578,9 +2062,9 @@
           <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A19" id="1074">
+            <xdr:cNvPr id="1074" name="A19" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1074"/>
@@ -2594,8 +2078,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2608,7 +2092,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -2625,19 +2109,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -2664,9 +2148,9 @@
           <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A20" id="1075">
+            <xdr:cNvPr id="1075" name="A20" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1075"/>
@@ -2680,8 +2164,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2694,7 +2178,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -2711,19 +2195,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -2750,9 +2234,9 @@
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A21" id="1076">
+            <xdr:cNvPr id="1076" name="A21" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1076"/>
@@ -2766,8 +2250,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2780,7 +2264,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -2797,19 +2281,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -2836,9 +2320,9 @@
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A22" id="1077">
+            <xdr:cNvPr id="1077" name="A22" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1077"/>
@@ -2852,8 +2336,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2866,7 +2350,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -2883,19 +2367,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -2922,9 +2406,9 @@
           <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A23" id="1078">
+            <xdr:cNvPr id="1078" name="A23" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1078"/>
@@ -2938,8 +2422,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2952,7 +2436,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -2969,19 +2453,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -3008,9 +2492,9 @@
           <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A24" id="1079">
+            <xdr:cNvPr id="1079" name="A24" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1079"/>
@@ -3024,8 +2508,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3038,7 +2522,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -3055,19 +2539,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -3094,9 +2578,9 @@
           <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A25" id="1080">
+            <xdr:cNvPr id="1080" name="A25" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1080"/>
@@ -3110,8 +2594,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3124,7 +2608,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -3141,19 +2625,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -3180,9 +2664,9 @@
           <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A26" id="1081">
+            <xdr:cNvPr id="1081" name="A26" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1081"/>
@@ -3196,8 +2680,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3210,7 +2694,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -3227,19 +2711,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -3266,9 +2750,9 @@
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A27" id="1082">
+            <xdr:cNvPr id="1082" name="A27" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1082"/>
@@ -3282,8 +2766,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3296,7 +2780,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -3313,19 +2797,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -3352,9 +2836,9 @@
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A28" id="1083">
+            <xdr:cNvPr id="1083" name="A28" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1083"/>
@@ -3368,8 +2852,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3382,7 +2866,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -3399,19 +2883,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -3438,9 +2922,9 @@
           <xdr:row>29</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A29" id="1084">
+            <xdr:cNvPr id="1084" name="A29" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1084"/>
@@ -3454,8 +2938,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3468,7 +2952,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -3485,19 +2969,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -3524,9 +3008,9 @@
           <xdr:row>30</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A30" id="1085">
+            <xdr:cNvPr id="1085" name="A30" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1085"/>
@@ -3540,8 +3024,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3554,7 +3038,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -3571,19 +3055,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -3610,9 +3094,9 @@
           <xdr:row>31</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A31" id="1086">
+            <xdr:cNvPr id="1086" name="A31" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1086"/>
@@ -3626,8 +3110,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3640,7 +3124,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -3657,19 +3141,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -3678,6 +3162,345 @@
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
       </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1090" name="Check Box 66" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1090"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1091" name="Check Box 67" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1091"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1092" name="Check Box 68" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1092"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="285750" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1093" name="Check Box 69" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1093"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -3980,312 +3803,344 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.4074859619141" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="0" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="0" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>5</v>
+      <c r="C5" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="0" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="0" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="0" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="0" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" t="s">
         <v>14</v>
       </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="0" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" t="s">
         <v>16</v>
       </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="0" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" t="s">
         <v>18</v>
       </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="0" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" t="s">
         <v>20</v>
       </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1"/>
-      <c r="B12" s="0" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1"/>
-      <c r="B13" s="0" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>22</v>
+      <c r="C14" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1"/>
-      <c r="B14" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="0" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" t="s">
         <v>24</v>
       </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="0" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" t="s">
         <v>26</v>
       </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="0" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" t="s">
         <v>28</v>
       </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1"/>
-      <c r="B17" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="0" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" t="s">
         <v>30</v>
       </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1"/>
-      <c r="B18" s="0" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1"/>
-      <c r="B19" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>34</v>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1"/>
-      <c r="B20" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>36</v>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1"/>
-      <c r="B21" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>38</v>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1"/>
-      <c r="B22" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>40</v>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1"/>
-      <c r="B23" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>32</v>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1"/>
-      <c r="B24" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>43</v>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>45</v>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1"/>
-      <c r="B26" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>47</v>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1"/>
-      <c r="B27" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>49</v>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1"/>
-      <c r="B28" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>51</v>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1"/>
-      <c r="B29" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>53</v>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1"/>
-      <c r="B30" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1"/>
-      <c r="B31" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>5</v>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1056" r:id="rId150" name="A1">
+            <control shapeId="1056" r:id="rId3" name="A1">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4305,9 +4160,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1057" r:id="rId151" name="A2">
+            <control shapeId="1057" r:id="rId4" name="A2">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4327,9 +4182,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1058" r:id="rId152" name="A3">
+            <control shapeId="1058" r:id="rId5" name="A3">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4349,9 +4204,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1059" r:id="rId153" name="A4">
+            <control shapeId="1059" r:id="rId6" name="A4">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4371,9 +4226,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1060" r:id="rId154" name="A5">
+            <control shapeId="1060" r:id="rId7" name="A5">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4393,9 +4248,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1061" r:id="rId155" name="A6">
+            <control shapeId="1061" r:id="rId8" name="A6">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4415,9 +4270,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1062" r:id="rId156" name="A7">
+            <control shapeId="1062" r:id="rId9" name="A7">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4437,9 +4292,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1063" r:id="rId157" name="A8">
+            <control shapeId="1063" r:id="rId10" name="A8">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4459,9 +4314,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1064" r:id="rId158" name="A9">
+            <control shapeId="1064" r:id="rId11" name="A9">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4481,9 +4336,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1065" r:id="rId159" name="A10">
+            <control shapeId="1065" r:id="rId12" name="A10">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4503,9 +4358,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1066" r:id="rId160" name="A11">
+            <control shapeId="1066" r:id="rId13" name="A11">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4525,9 +4380,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1067" r:id="rId161" name="A12">
+            <control shapeId="1067" r:id="rId14" name="A12">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4547,9 +4402,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1068" r:id="rId162" name="A13">
+            <control shapeId="1068" r:id="rId15" name="A13">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4569,9 +4424,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1069" r:id="rId163" name="A14">
+            <control shapeId="1069" r:id="rId16" name="A14">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4591,9 +4446,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1070" r:id="rId164" name="A15">
+            <control shapeId="1070" r:id="rId17" name="A15">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4613,9 +4468,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1071" r:id="rId165" name="A16">
+            <control shapeId="1071" r:id="rId18" name="A16">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4635,9 +4490,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1072" r:id="rId166" name="A17">
+            <control shapeId="1072" r:id="rId19" name="A17">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4657,9 +4512,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1073" r:id="rId167" name="A18">
+            <control shapeId="1073" r:id="rId20" name="A18">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4679,9 +4534,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1074" r:id="rId168" name="A19">
+            <control shapeId="1074" r:id="rId21" name="A19">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4701,9 +4556,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1075" r:id="rId169" name="A20">
+            <control shapeId="1075" r:id="rId22" name="A20">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4723,9 +4578,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1076" r:id="rId170" name="A21">
+            <control shapeId="1076" r:id="rId23" name="A21">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4745,9 +4600,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1077" r:id="rId171" name="A22">
+            <control shapeId="1077" r:id="rId24" name="A22">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4767,9 +4622,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1078" r:id="rId172" name="A23">
+            <control shapeId="1078" r:id="rId25" name="A23">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4789,9 +4644,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1079" r:id="rId173" name="A24">
+            <control shapeId="1079" r:id="rId26" name="A24">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4811,9 +4666,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1080" r:id="rId174" name="A25">
+            <control shapeId="1080" r:id="rId27" name="A25">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4833,9 +4688,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1081" r:id="rId175" name="A26">
+            <control shapeId="1081" r:id="rId28" name="A26">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4855,9 +4710,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1082" r:id="rId176" name="A27">
+            <control shapeId="1082" r:id="rId29" name="A27">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4877,9 +4732,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1083" r:id="rId177" name="A28">
+            <control shapeId="1083" r:id="rId30" name="A28">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4899,9 +4754,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1084" r:id="rId178" name="A29">
+            <control shapeId="1084" r:id="rId31" name="A29">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4921,9 +4776,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1085" r:id="rId179" name="A30">
+            <control shapeId="1085" r:id="rId32" name="A30">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4943,9 +4798,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1086" r:id="rId180" name="A31">
+            <control shapeId="1086" r:id="rId33" name="A31">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4958,6 +4813,94 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>31</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1090" r:id="rId34" name="Check Box 66">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>32</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1091" r:id="rId35" name="Check Box 67">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>32</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>33</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1092" r:id="rId36" name="Check Box 68">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>33</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>34</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1093" r:id="rId37" name="Check Box 69">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>34</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>35</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
